--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed4/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.321999999999999</v>
+        <v>7.733999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.2</v>
+        <v>-21.74</v>
       </c>
       <c r="B9" t="n">
-        <v>4.816</v>
+        <v>6.068000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.956</v>
+        <v>-7.852000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.176</v>
+        <v>-21.995</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.07</v>
+        <v>-20.511</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.108000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.564</v>
+        <v>5.149000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.680000000000001</v>
+        <v>5.223000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-21.791</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.762</v>
+        <v>-7.226999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.325999999999999</v>
+        <v>7.215999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.01</v>
+        <v>8.031000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.924000000000001</v>
+        <v>-7.867</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.122</v>
+        <v>-7.503000000000002</v>
       </c>
     </row>
     <row r="46">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.986</v>
+        <v>5.433999999999999</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.668000000000001</v>
+        <v>-8.409000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.252</v>
+        <v>5.544</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.084</v>
+        <v>-8.145999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.504</v>
+        <v>-7.827</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.272</v>
+        <v>5.172</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.256000000000001</v>
+        <v>5.374</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.654</v>
+        <v>-21.521</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.49</v>
+        <v>-20.468</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.809999999999999</v>
+        <v>8.606</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.838</v>
+        <v>-21.81</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.092000000000001</v>
+        <v>-7.246</v>
       </c>
     </row>
     <row r="94">
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.715999999999999</v>
+        <v>5.206999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
